--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="825" windowWidth="18195" windowHeight="6780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="825" windowWidth="18195" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="655">
   <si>
     <t>Short Name</t>
   </si>
@@ -2005,6 +2005,18 @@
   </si>
   <si>
     <t>research-and-development.html</t>
+  </si>
+  <si>
+    <t>Financial: Change in Capital and Operational Expenditures (revenue-neutral carbon tax)</t>
+  </si>
+  <si>
+    <t>Financial: Change in Total Outlays (revenue-neutral carbon tax)</t>
+  </si>
+  <si>
+    <t>Output Total Change in Outlays with Revenue Neutral Carbon Tax</t>
+  </si>
+  <si>
+    <t>Output Total Change in Capital Fuel and Labor Expenditures with Revenue Neutral Carbon Tax</t>
   </si>
 </sst>
 </file>
@@ -3010,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3089,7 +3101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -11834,7 +11846,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11843,7 +11855,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" style="7" customWidth="1"/>
     <col min="2" max="3" width="17.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="69" style="7" customWidth="1"/>
@@ -11872,7 +11884,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -11889,7 +11901,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -11906,7 +11918,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -11923,7 +11935,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -11940,7 +11952,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -11957,7 +11969,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -11974,7 +11986,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -11990,83 +12002,77 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>562</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>107</v>
@@ -12075,18 +12081,18 @@
         <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>365</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>107</v>
@@ -12095,18 +12101,18 @@
         <v>108</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>368</v>
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>107</v>
@@ -12115,52 +12121,58 @@
         <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>111</v>
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>367</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>112</v>
+        <v>369</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>104</v>
@@ -12169,15 +12181,15 @@
         <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>372</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>104</v>
@@ -12186,15 +12198,15 @@
         <v>105</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>375</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>104</v>
@@ -12203,15 +12215,15 @@
         <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>377</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>104</v>
@@ -12223,12 +12235,12 @@
         <v>373</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>104</v>
@@ -12240,12 +12252,12 @@
         <v>373</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>104</v>
@@ -12257,12 +12269,12 @@
         <v>373</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>104</v>
@@ -12270,16 +12282,16 @@
       <c r="C24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>385</v>
+      <c r="D24" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>104</v>
@@ -12287,16 +12299,16 @@
       <c r="C25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>387</v>
+      <c r="D25" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>104</v>
@@ -12308,12 +12320,12 @@
         <v>115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>104</v>
@@ -12322,15 +12334,15 @@
         <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>104</v>
@@ -12339,15 +12351,15 @@
         <v>105</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>104</v>
@@ -12356,15 +12368,15 @@
         <v>105</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>104</v>
@@ -12373,15 +12385,15 @@
         <v>105</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>104</v>
@@ -12393,12 +12405,12 @@
         <v>116</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>104</v>
@@ -12407,15 +12419,15 @@
         <v>105</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>563</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>400</v>
+      <c r="A33" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>104</v>
@@ -12424,16 +12436,15 @@
         <v>105</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>398</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>402</v>
+      <c r="A34" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>104</v>
@@ -12442,16 +12453,15 @@
         <v>105</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F34" s="6"/>
+        <v>563</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>404</v>
+      <c r="A35" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>104</v>
@@ -12463,9 +12473,45 @@
         <v>115</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="825" windowWidth="18195" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="825" windowWidth="18195" windowHeight="6780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -747,9 +747,6 @@
   </si>
   <si>
     <t>**Description:** This policy reduces emissions of greenhouse gases from the inudstry sector by improving worker training and equipment maintenance. // **Implementation schedule:** This policy is . // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2030 are reduced by 4.5% from the natural gas and petroleum industry and 20.1% from the "other industries" category.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy increases the sequestration of CO2 by planting forests.  Planted forests are assumed to be managed with best practices and are not used for timber harvesting. // **Implementation schedule:** This policy takes effect fully in the first year of the model run (meaning the same acreage is converted to forest each year, resuting in increasing annual CO2 sequestration). // **Guidance for setting values:** If this policy is fully implemented, all suitable acreage in the U.S. (roughly 275 million acres) is afforested/reforested by 2030.</t>
   </si>
   <si>
     <t>Carbon Tax by End Year</t>
@@ -1338,9 +1335,6 @@
     <t>Fraction of Abatement from Forest Set Asides Achieved</t>
   </si>
   <si>
-    <t>**Description:** This policy implements a fee on sales of inefficient light-duty vehicles (LDVs; namely cars and SUVs) that is rebated to buyers of efficient LDVs.  The feebate policy is revenue-neutral, as the pivot point (the efficiency level that incurs neither a rebate nor a fee) is set such that the total of all fees equals the total of all rebates. // **Implementation schedule:** This policy takes effect fully in 2016. // **Guidance for setting values:** A feebate of $500/(.01 gal/mile) results in a $500 fee on a car that achieves 20 mpg when the pivot point is 25 mpg.  (20 mpg is 0.04 gpm.  25 mpg is 0.04 gpm.  The difference is -0.01 gpm.  So, in order to levy a $500 fee on the 20 mpg car when the pivot point is 25 mpg, we need a rate of $500/.01 gpm.)</t>
-  </si>
-  <si>
     <t>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for new light-duty vehicles (primarily cars and SUVs). // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** U.S. fuel economy standards were 31.1 mpg in 2013 and are scheduled to rise to 54.5 through 2025, then remain constant.  Therefore, a 20% increase in fuel economy will result in a 2030 fuel economy of 65.4 mpg (54.5 mpg * 1.2).</t>
   </si>
   <si>
@@ -1572,9 +1566,6 @@
     <t>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from biomass. // **Implementation schedule:** This policy takes effect fully in 2016. // **Guidance for setting values:** Until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between $11/MWh and $23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as $54/MWh.</t>
   </si>
   <si>
-    <t>**Description:** This policy avoids the release of CO2 from forests by reducing timber harvesting. // **Implementation schedule:** This policy takes effect fully in 2016. // **Guidance for setting values:** If this policy is fully implemented, all timber harvesting is ceased.</t>
-  </si>
-  <si>
     <t>**Description:** This policy causes the capital cost of heating systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
   </si>
   <si>
@@ -2017,6 +2008,15 @@
   </si>
   <si>
     <t>Output Total Change in Capital Fuel and Labor Expenditures with Revenue Neutral Carbon Tax</t>
+  </si>
+  <si>
+    <t>**Description:** This policy increases the sequestration of CO2 by planting forests.  Planted forests are assumed to be managed with best practices and are not used for timber harvesting. // **Implementation schedule:** This policy takes effect fully in the first year of the model run (meaning the same acreage is converted to forest each year, resuting in increasing annual CO2 sequestration). // **Guidance for setting values:** This policy lever sets the percentage of the total land area in the U.S. suitable for afforestation/reforestation (roughly 275 million acres) that is afforested/reforested by 2030.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy avoids the release of CO2 from forests by reducing timber harvesting. // **Implementation schedule:** This policy takes effect fully in 2016. // **Guidance for setting values:** This policy lever sets the percentage by which annual timber harvesting is reduced.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy implements a fee on sales of inefficient light-duty vehicles (LDVs; namely cars and SUVs) that is rebated to buyers of efficient LDVs.  The feebate policy is revenue-neutral, as the pivot point (the efficiency level that incurs neither a rebate nor a fee) is set such that the total of all fees equals the total of all rebates. // **Implementation schedule:** This policy takes effect fully in 2016. // **Guidance for setting values:** A feebate of $500/(.01 gal/mile) results in a $500 fee on a car that achieves 20 mpg when the pivot point is 25 mpg.  (20 mpg is 0.05 gpm.  25 mpg is 0.04 gpm.  The difference is -0.01 gpm.  So, in order to levy a $500 fee on the 20 mpg car when the pivot point is 25 mpg, we need a rate of $500/.01 gpm.)</t>
   </si>
 </sst>
 </file>
@@ -3022,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3101,7 +3101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3170,16 +3170,16 @@
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Q1" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" s="59" t="s">
         <v>262</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3212,19 +3212,19 @@
         <v>182</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -3263,19 +3263,19 @@
         <v>184</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R3" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -3320,19 +3320,19 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R4" s="60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3377,19 +3377,19 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R5" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3434,19 +3434,19 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R6" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3491,19 +3491,19 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R7" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
         <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H8" s="9">
         <v>7</v>
@@ -3548,16 +3548,16 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q8" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3589,16 +3589,16 @@
         <v>64</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="120" x14ac:dyDescent="0.25">
@@ -3643,19 +3643,19 @@
         <v>63</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q10" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R10" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>68</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>75</v>
@@ -3744,16 +3744,16 @@
         <v>% of non-electric vehicles replaced</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q12" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R12" s="60"/>
     </row>
@@ -3783,7 +3783,7 @@
         <v>69</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>75</v>
@@ -3821,7 +3821,7 @@
         <v>150</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>75</v>
@@ -3859,7 +3859,7 @@
         <v>150</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>75</v>
@@ -3919,16 +3919,16 @@
         <v>% of non-electric vehicles replaced</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q16" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R16" s="61"/>
     </row>
@@ -3958,7 +3958,7 @@
         <v>151</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>75</v>
@@ -3996,7 +3996,7 @@
         <v>152</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>75</v>
@@ -4034,7 +4034,7 @@
         <v>152</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>75</v>
@@ -4075,19 +4075,19 @@
         <v>186</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R20" s="64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="13" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -4128,19 +4128,19 @@
         <v>57</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q21" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R21" s="60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4187,13 +4187,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q22" s="40" t="str">
         <f>Q$21</f>
@@ -4246,13 +4246,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q23" s="40" t="str">
         <f>Q$21</f>
@@ -4305,13 +4305,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q24" s="40" t="str">
         <f>Q$21</f>
@@ -4364,13 +4364,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q25" s="40" t="str">
         <f>Q$21</f>
@@ -4423,13 +4423,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q26" s="40" t="str">
         <f>Q$21</f>
@@ -4471,13 +4471,13 @@
         <v>54</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q27" s="41" t="s">
         <v>135</v>
@@ -4517,13 +4517,13 @@
         <v>54</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="Q28" s="41" t="s">
         <v>135</v>
@@ -4538,7 +4538,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>187</v>
@@ -4568,19 +4568,19 @@
         <v>62</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R29" s="62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4627,13 +4627,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q30" s="40" t="str">
         <f>Q29</f>
@@ -4685,13 +4685,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q31" s="40" t="str">
         <f>Q30</f>
@@ -4743,13 +4743,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q32" s="40" t="str">
         <f>Q31</f>
@@ -4801,13 +4801,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q33" s="40" t="str">
         <f>Q32</f>
@@ -4859,13 +4859,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q34" s="40" t="str">
         <f>Q33</f>
@@ -4910,13 +4910,13 @@
         <v>54</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q35" s="41" t="s">
         <v>135</v>
@@ -4967,13 +4967,13 @@
         <v>on/off</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>135</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>75</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>75</v>
@@ -5096,13 +5096,13 @@
         <v>on/off</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q39" s="41" t="s">
         <v>135</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>75</v>
@@ -5160,7 +5160,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>75</v>
@@ -5196,16 +5196,16 @@
         <v>60</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Q42" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="150" x14ac:dyDescent="0.25">
@@ -5240,22 +5240,22 @@
         <v>500</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Q43" s="63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R43" s="64" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
         <v>154</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>75</v>
@@ -5330,16 +5330,16 @@
         <v>MW/year</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Q45" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5362,7 +5362,7 @@
         <v>156</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>75</v>
@@ -5392,7 +5392,7 @@
         <v>157</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>75</v>
@@ -5422,7 +5422,7 @@
         <v>158</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>75</v>
@@ -5452,7 +5452,7 @@
         <v>159</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>75</v>
@@ -5482,7 +5482,7 @@
         <v>160</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>75</v>
@@ -5521,19 +5521,19 @@
         <v>55</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Q51" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R51" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -5566,19 +5566,19 @@
         <v>210</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="Q52" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R52" s="60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>75</v>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>75</v>
@@ -5663,7 +5663,7 @@
         <v>154</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I55" s="18" t="s">
         <v>75</v>
@@ -5713,19 +5713,19 @@
         <v>206</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="Q56" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R56" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5748,7 +5748,7 @@
         <v>156</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>75</v>
@@ -5780,7 +5780,7 @@
         <v>157</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>75</v>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>75</v>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>75</v>
@@ -5874,7 +5874,7 @@
         <v>160</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I61" s="18" t="s">
         <v>75</v>
@@ -5919,19 +5919,19 @@
         <v>61</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q62" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R62" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>75</v>
@@ -5987,7 +5987,7 @@
         <v>154</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>75</v>
@@ -6035,19 +6035,19 @@
         <v>1</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q65" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R65" s="60"/>
     </row>
@@ -6127,13 +6127,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q67" s="40" t="str">
         <f>Q$65</f>
@@ -6184,13 +6184,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q68" s="40" t="str">
         <f>Q$65</f>
@@ -6241,13 +6241,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q69" s="40" t="str">
         <f>Q$65</f>
@@ -6298,13 +6298,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q70" s="40" t="str">
         <f>Q$65</f>
@@ -6340,16 +6340,16 @@
         <v>60</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="Q71" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -6385,16 +6385,16 @@
         <v>60</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q72" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R72" s="61"/>
     </row>
@@ -6431,16 +6431,16 @@
         <v>60</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Q73" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R73" s="61"/>
     </row>
@@ -6482,19 +6482,19 @@
         <v>57</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q74" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R74" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6541,13 +6541,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q75" s="40" t="str">
         <f t="shared" ref="Q75:Q81" si="17">Q$74</f>
@@ -6599,13 +6599,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q76" s="40" t="str">
         <f t="shared" si="17"/>
@@ -6657,13 +6657,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q77" s="40" t="str">
         <f t="shared" si="17"/>
@@ -6715,13 +6715,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q78" s="40" t="str">
         <f t="shared" si="17"/>
@@ -6773,13 +6773,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q79" s="40" t="str">
         <f t="shared" si="17"/>
@@ -6829,13 +6829,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q80" s="40" t="str">
         <f t="shared" si="17"/>
@@ -6886,13 +6886,13 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q81" s="40" t="str">
         <f t="shared" si="17"/>
@@ -6933,16 +6933,16 @@
         <v>60</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q82" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R82" s="61"/>
     </row>
@@ -6975,19 +6975,19 @@
         <v>56</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q83" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R83" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -7019,16 +7019,16 @@
         <v>60</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Q84" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -7060,16 +7060,16 @@
         <v>60</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Q85" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -7101,16 +7101,16 @@
         <v>60</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="Q86" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -7145,13 +7145,13 @@
         <v>241</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Q87" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -7184,19 +7184,19 @@
         <v>60</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>242</v>
+        <v>652</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Q88" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R88" s="60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="105" x14ac:dyDescent="0.25">
@@ -7204,10 +7204,10 @@
         <v>227</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="H89" s="9">
         <v>61</v>
@@ -7229,19 +7229,19 @@
         <v>60</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>506</v>
+        <v>653</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q89" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R89" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -7273,16 +7273,16 @@
         <v>60</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q90" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -7314,16 +7314,16 @@
         <v>60</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Q91" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -7355,16 +7355,16 @@
         <v>60</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="Q92" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -7396,16 +7396,16 @@
         <v>60</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="Q93" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -7437,16 +7437,16 @@
         <v>60</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q94" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:18" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
         <v>46</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -7479,19 +7479,19 @@
         <v>1</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="Q95" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R95" s="61"/>
     </row>
@@ -7524,16 +7524,16 @@
         <v>92</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="Q96" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R96" s="62"/>
     </row>
@@ -7545,7 +7545,7 @@
         <v>47</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>84</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>75</v>
@@ -7607,19 +7607,19 @@
         <v>0.01</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q98" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R98" s="61"/>
     </row>
@@ -7667,16 +7667,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q99" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R99" s="61"/>
     </row>
@@ -7724,16 +7724,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q100" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R100" s="61"/>
     </row>
@@ -7781,16 +7781,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q101" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R101" s="61"/>
     </row>
@@ -7838,16 +7838,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q102" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R102" s="61"/>
     </row>
@@ -7895,16 +7895,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q103" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R103" s="61"/>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>75</v>
@@ -7988,16 +7988,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q105" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R105" s="61"/>
     </row>
@@ -8045,16 +8045,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q106" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R106" s="61"/>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>75</v>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>75</v>
@@ -8174,16 +8174,16 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q109" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R109" s="61"/>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>75</v>
@@ -8228,10 +8228,10 @@
         <v>21</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="18" t="s">
@@ -8281,19 +8281,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q112" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R112" s="61"/>
     </row>
@@ -8340,13 +8340,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q113" s="40" t="str">
         <f>Q$112</f>
@@ -8397,13 +8397,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q114" s="40" t="str">
         <f>Q$112</f>
@@ -8432,7 +8432,7 @@
         <v>155</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>75</v>
@@ -8467,7 +8467,7 @@
         <v>156</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>75</v>
@@ -8502,7 +8502,7 @@
         <v>157</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>75</v>
@@ -8537,7 +8537,7 @@
         <v>162</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>75</v>
@@ -8572,7 +8572,7 @@
         <v>160</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>75</v>
@@ -8629,13 +8629,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q120" s="40" t="str">
         <f>Q$112</f>
@@ -8686,13 +8686,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q121" s="40" t="str">
         <f>Q$112</f>
@@ -8721,7 +8721,7 @@
         <v>165</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>75</v>
@@ -8756,7 +8756,7 @@
         <v>166</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>75</v>
@@ -8814,13 +8814,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Q124" s="40" t="str">
         <f>Q$112</f>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I125" s="18" t="s">
         <v>75</v>
@@ -8868,7 +8868,7 @@
         <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>187</v>
@@ -8895,13 +8895,13 @@
         <v>58</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q126" s="39" t="s">
         <v>135</v>
@@ -8949,13 +8949,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q127" s="39" t="s">
         <v>135</v>
@@ -9003,13 +9003,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q128" s="39" t="s">
         <v>135</v>
@@ -9057,13 +9057,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q129" s="39" t="s">
         <v>135</v>
@@ -9111,13 +9111,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q130" s="39" t="s">
         <v>135</v>
@@ -9165,13 +9165,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q131" s="39" t="s">
         <v>135</v>
@@ -9186,7 +9186,7 @@
         <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H132" s="9">
         <v>91</v>
@@ -9207,13 +9207,13 @@
         <v>58</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q132" s="39" t="s">
         <v>135</v>
@@ -9227,7 +9227,7 @@
         <v>161</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>137</v>
@@ -9254,13 +9254,13 @@
         <v>58</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q133" s="39" t="s">
         <v>135</v>
@@ -9309,13 +9309,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q134" s="39" t="s">
         <v>135</v>
@@ -9364,13 +9364,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q135" s="39" t="s">
         <v>135</v>
@@ -9419,13 +9419,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q136" s="39" t="s">
         <v>135</v>
@@ -9474,13 +9474,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q137" s="39" t="s">
         <v>135</v>
@@ -9529,13 +9529,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q138" s="39" t="s">
         <v>135</v>
@@ -9584,13 +9584,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q139" s="39" t="s">
         <v>135</v>
@@ -9639,13 +9639,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P140" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q140" s="39" t="s">
         <v>135</v>
@@ -9659,7 +9659,7 @@
         <v>12</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>211</v>
@@ -9686,13 +9686,13 @@
         <v>58</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q141" s="39" t="s">
         <v>135</v>
@@ -9740,13 +9740,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P142" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q142" s="39" t="s">
         <v>135</v>
@@ -9794,13 +9794,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P143" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q143" s="39" t="s">
         <v>135</v>
@@ -9848,13 +9848,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P144" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q144" s="39" t="s">
         <v>135</v>
@@ -9902,13 +9902,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q145" s="39" t="s">
         <v>135</v>
@@ -9956,13 +9956,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q146" s="39" t="s">
         <v>135</v>
@@ -10010,13 +10010,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q147" s="39" t="s">
         <v>135</v>
@@ -10064,13 +10064,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q148" s="39" t="s">
         <v>135</v>
@@ -10084,7 +10084,7 @@
         <v>132</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>68</v>
@@ -10111,13 +10111,13 @@
         <v>58</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q149" s="39" t="s">
         <v>135</v>
@@ -10165,13 +10165,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P150" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q150" s="39" t="s">
         <v>135</v>
@@ -10219,13 +10219,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q151" s="39" t="s">
         <v>135</v>
@@ -10273,13 +10273,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O152" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q152" s="39" t="s">
         <v>135</v>
@@ -10327,13 +10327,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q153" s="39" t="s">
         <v>135</v>
@@ -10356,7 +10356,7 @@
         <v>185</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H154" s="9">
         <v>113</v>
@@ -10381,13 +10381,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q154" s="39" t="s">
         <v>135</v>
@@ -10401,7 +10401,7 @@
         <v>131</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>187</v>
@@ -10428,13 +10428,13 @@
         <v>59</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q155" s="39" t="s">
         <v>135</v>
@@ -10482,13 +10482,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q156" s="39" t="s">
         <v>135</v>
@@ -10536,13 +10536,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q157" s="39" t="s">
         <v>135</v>
@@ -10590,13 +10590,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q158" s="39" t="s">
         <v>135</v>
@@ -10644,13 +10644,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O159" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q159" s="39" t="s">
         <v>135</v>
@@ -10698,13 +10698,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="O160" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q160" s="39" t="s">
         <v>135</v>
@@ -10718,7 +10718,7 @@
         <v>48</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H161" s="9">
         <v>120</v>
@@ -10739,13 +10739,13 @@
         <v>59</v>
       </c>
       <c r="N161" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q161" s="39" t="s">
         <v>135</v>
@@ -10759,7 +10759,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>137</v>
@@ -10786,13 +10786,13 @@
         <v>59</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O162" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q162" s="39" t="s">
         <v>135</v>
@@ -10841,13 +10841,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N163" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="O163" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q163" s="39" t="s">
         <v>135</v>
@@ -10896,13 +10896,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N164" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="O164" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q164" s="39" t="s">
         <v>135</v>
@@ -10929,7 +10929,7 @@
         <v>156</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I165" s="10" t="s">
         <v>75</v>
@@ -10960,7 +10960,7 @@
         <v>157</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I166" s="10" t="s">
         <v>75</v>
@@ -10991,7 +10991,7 @@
         <v>158</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I167" s="10" t="s">
         <v>75</v>
@@ -11022,7 +11022,7 @@
         <v>159</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I168" s="10" t="s">
         <v>75</v>
@@ -11075,13 +11075,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N169" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="O169" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q169" s="39" t="s">
         <v>135</v>
@@ -11095,7 +11095,7 @@
         <v>12</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>211</v>
@@ -11122,13 +11122,13 @@
         <v>59</v>
       </c>
       <c r="N170" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="O170" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q170" s="39" t="s">
         <v>135</v>
@@ -11176,13 +11176,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N171" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="O171" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q171" s="39" t="s">
         <v>135</v>
@@ -11230,13 +11230,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N172" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="O172" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q172" s="39" t="s">
         <v>135</v>
@@ -11284,13 +11284,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N173" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O173" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q173" s="39" t="s">
         <v>135</v>
@@ -11338,13 +11338,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N174" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="O174" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q174" s="39" t="s">
         <v>135</v>
@@ -11392,13 +11392,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N175" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="O175" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q175" s="39" t="s">
         <v>135</v>
@@ -11446,13 +11446,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N176" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O176" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q176" s="39" t="s">
         <v>135</v>
@@ -11500,13 +11500,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N177" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="O177" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>135</v>
@@ -11520,7 +11520,7 @@
         <v>132</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>68</v>
@@ -11547,13 +11547,13 @@
         <v>59</v>
       </c>
       <c r="N178" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="O178" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q178" s="39" t="s">
         <v>135</v>
@@ -11601,13 +11601,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N179" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O179" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q179" s="39" t="s">
         <v>135</v>
@@ -11655,13 +11655,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N180" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O180" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q180" s="39" t="s">
         <v>135</v>
@@ -11709,13 +11709,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="O181" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q181" s="39" t="s">
         <v>135</v>
@@ -11763,13 +11763,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N182" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O182" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q182" s="39" t="s">
         <v>135</v>
@@ -11792,7 +11792,7 @@
         <v>185</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H183" s="9">
         <v>138</v>
@@ -11817,13 +11817,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N183" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="O183" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q183" s="39" t="s">
         <v>135</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>104</v>
@@ -11897,12 +11897,12 @@
         <v>115</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>104</v>
@@ -11914,7 +11914,7 @@
         <v>115</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11970,7 +11970,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>104</v>
@@ -11982,12 +11982,12 @@
         <v>115</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>104</v>
@@ -11996,15 +11996,15 @@
         <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>104</v>
@@ -12013,15 +12013,15 @@
         <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>104</v>
@@ -12030,15 +12030,15 @@
         <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>104</v>
@@ -12047,15 +12047,15 @@
         <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>104</v>
@@ -12064,7 +12064,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>117</v>
@@ -12081,10 +12081,10 @@
         <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>118</v>
@@ -12104,10 +12104,10 @@
         <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -12124,15 +12124,15 @@
         <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>107</v>
@@ -12141,18 +12141,18 @@
         <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>107</v>
@@ -12161,13 +12161,13 @@
         <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12198,7 +12198,7 @@
         <v>105</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>124</v>
@@ -12215,7 +12215,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>125</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>104</v>
@@ -12232,15 +12232,15 @@
         <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>104</v>
@@ -12249,15 +12249,15 @@
         <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>104</v>
@@ -12266,15 +12266,15 @@
         <v>105</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>104</v>
@@ -12283,15 +12283,15 @@
         <v>105</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>104</v>
@@ -12300,15 +12300,15 @@
         <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>104</v>
@@ -12320,12 +12320,12 @@
         <v>115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>104</v>
@@ -12337,12 +12337,12 @@
         <v>116</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>104</v>
@@ -12354,12 +12354,12 @@
         <v>115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>104</v>
@@ -12371,12 +12371,12 @@
         <v>115</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>104</v>
@@ -12388,12 +12388,12 @@
         <v>116</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>104</v>
@@ -12405,12 +12405,12 @@
         <v>116</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>104</v>
@@ -12422,12 +12422,12 @@
         <v>115</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>104</v>
@@ -12439,12 +12439,12 @@
         <v>116</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>104</v>
@@ -12456,12 +12456,12 @@
         <v>116</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>104</v>
@@ -12473,13 +12473,13 @@
         <v>115</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>104</v>
@@ -12491,13 +12491,13 @@
         <v>115</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>104</v>
@@ -12509,7 +12509,7 @@
         <v>115</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -12552,23 +12552,23 @@
         <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -12581,8 +12581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" s="74"/>
       <c r="C2" s="74"/>
@@ -12614,7 +12614,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12622,12 +12622,12 @@
         <v>155400</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -12636,7 +12636,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -12644,12 +12644,12 @@
         <v>100800</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="74"/>
       <c r="C40" s="74"/>
@@ -12658,7 +12658,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12666,12 +12666,12 @@
         <v>194000</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
@@ -12680,12 +12680,12 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B64" s="74"/>
       <c r="C64" s="74"/>
@@ -12697,7 +12697,7 @@
         <v>2013</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -12705,7 +12705,7 @@
         <v>2014</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -12713,7 +12713,7 @@
         <v>2015</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -12721,7 +12721,7 @@
         <v>2016</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -12729,7 +12729,7 @@
         <v>2017</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -12737,7 +12737,7 @@
         <v>2018</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -12745,7 +12745,7 @@
         <v>2019</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -12753,7 +12753,7 @@
         <v>2020</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -12761,7 +12761,7 @@
         <v>2021</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -12769,7 +12769,7 @@
         <v>2022</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -12777,7 +12777,7 @@
         <v>2023</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
         <v>2024</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -12793,7 +12793,7 @@
         <v>2025</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -12843,7 +12843,7 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B84" s="74"/>
       <c r="C84" s="74"/>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87" s="73"/>
       <c r="C87" s="73"/>
@@ -12867,12 +12867,12 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B89" s="45"/>
     </row>
@@ -12891,7 +12891,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B97" s="73"/>
       <c r="C97" s="73"/>
@@ -12900,12 +12900,12 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -12916,7 +12916,7 @@
     </row>
     <row r="127" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12927,7 +12927,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B130" s="73"/>
       <c r="C130" s="73"/>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -12946,7 +12946,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -12957,7 +12957,7 @@
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12968,7 +12968,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B140" s="73"/>
       <c r="C140" s="73"/>
@@ -12977,12 +12977,12 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -12993,7 +12993,7 @@
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13004,7 +13004,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B173" s="73"/>
       <c r="C173" s="73"/>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13024,7 +13024,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B188" s="73"/>
       <c r="C188" s="73"/>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13052,7 +13052,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B193" s="6">
         <v>2010</v>
@@ -13061,12 +13061,12 @@
         <v>2050</v>
       </c>
       <c r="D193" s="75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B194" s="6">
         <v>12</v>
@@ -13078,7 +13078,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B195" s="6">
         <v>9</v>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B197" s="6">
         <v>2010</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B198" s="45">
         <v>0.43</v>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B199" s="45">
         <v>0.53</v>
@@ -13129,12 +13129,12 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D200" s="76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B201" s="6">
         <v>2013</v>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B202" s="6">
         <f>TREND($B194:$C194,$B$193:$C$193,B$201)</f>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B203" s="6">
         <f>TREND($B195:$C195,$B$193:$C$193,B$201)</f>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B205" s="6">
         <v>2013</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B206" s="46">
         <f>TREND($B198:$C198,$B$197:$C$197,B$205)</f>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B207" s="46">
         <f>TREND($B199:$C199,$B$197:$C$197,B$205)</f>
@@ -13220,7 +13220,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" s="6">
         <v>2013</v>
@@ -13232,7 +13232,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" s="46">
         <f>SUMPRODUCT(B202:B203,B206:B207)/SUM(B202:B203)</f>
@@ -13250,7 +13250,7 @@
         <v>0.98</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -13269,7 +13269,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B215" s="6">
         <v>2010</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B216" s="46">
         <v>0</v>
@@ -13319,7 +13319,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B218" s="6">
         <v>2010</v>
@@ -13342,7 +13342,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B219" s="46">
         <v>0</v>
@@ -13366,7 +13366,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B221" s="6">
         <v>2030</v>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B222" s="6">
         <v>20.48</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B223" s="6">
         <v>19.52</v>
@@ -13394,7 +13394,7 @@
     </row>
     <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13405,7 +13405,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B228" s="73"/>
       <c r="C228" s="73"/>
@@ -13414,7 +13414,7 @@
     </row>
     <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B229" s="45">
         <v>0.4</v>
@@ -13422,7 +13422,7 @@
     </row>
     <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B230" s="53">
         <f>(1+B229)^(1/(2020-2010))-1</f>
@@ -13434,7 +13434,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B232" s="73"/>
       <c r="C232" s="73"/>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B233" s="65">
         <v>0.1</v>
@@ -13451,7 +13451,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B234" s="65">
         <v>0.8</v>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B235" s="65">
         <f>(B234-B233)/(40)*20+B233</f>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B236" s="65">
         <v>6.4000000000000001E-2</v>
@@ -13476,7 +13476,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B237" s="65">
         <f>AVERAGE(0.083,0.16)</f>
@@ -13485,7 +13485,7 @@
     </row>
     <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B238" s="65">
         <f>(B237-B236)/(40)*20+B236</f>
@@ -13494,7 +13494,7 @@
     </row>
     <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B239" s="53">
         <f>B235-B238</f>
@@ -13503,7 +13503,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B241" s="73"/>
       <c r="C241" s="73"/>
@@ -13516,12 +13516,12 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B288" s="6">
         <v>63</v>
@@ -13529,7 +13529,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B289" s="6">
         <v>86</v>
@@ -13537,7 +13537,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B290" s="56">
         <f>B288/B289*50</f>
@@ -13546,7 +13546,7 @@
     </row>
     <row r="291" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B291" s="6">
         <f>AVERAGE(150,200)</f>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="292" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B292" s="44">
         <f>(B291+B290)/B291-1</f>
@@ -13564,7 +13564,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B294" s="73"/>
       <c r="C294" s="73"/>
@@ -13573,12 +13573,12 @@
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B296" s="58">
         <f>0.11</f>
@@ -13591,7 +13591,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B298" s="73"/>
       <c r="C298" s="73"/>
@@ -13600,27 +13600,27 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B299" s="51" t="s">
         <v>413</v>
-      </c>
-      <c r="B299" s="51" t="s">
-        <v>414</v>
       </c>
       <c r="C299" s="51"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B300" s="69">
         <v>15277777.777777778</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B301" s="69">
         <f>3.4*10^6</f>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B302" s="6">
         <v>2</v>
@@ -13638,7 +13638,7 @@
     </row>
     <row r="303" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B303" s="69">
         <f>B302*B301</f>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B304" s="44">
         <f>B303/B300</f>
@@ -13656,7 +13656,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B306" s="73"/>
       <c r="C306" s="73"/>
@@ -13665,16 +13665,16 @@
     </row>
     <row r="307" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B307" s="51" t="s">
         <v>413</v>
-      </c>
-      <c r="B307" s="51" t="s">
-        <v>414</v>
       </c>
       <c r="C307" s="51"/>
     </row>
     <row r="308" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B308" s="44">
         <v>0.31</v>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="825" windowWidth="18195" windowHeight="6780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="825" windowWidth="18195" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="658">
   <si>
     <t>Short Name</t>
   </si>
@@ -2017,6 +2017,15 @@
   </si>
   <si>
     <t>**Description:** This policy implements a fee on sales of inefficient light-duty vehicles (LDVs; namely cars and SUVs) that is rebated to buyers of efficient LDVs.  The feebate policy is revenue-neutral, as the pivot point (the efficiency level that incurs neither a rebate nor a fee) is set such that the total of all fees equals the total of all rebates. // **Implementation schedule:** This policy takes effect fully in 2016. // **Guidance for setting values:** A feebate of $500/(.01 gal/mile) results in a $500 fee on a car that achieves 20 mpg when the pivot point is 25 mpg.  (20 mpg is 0.05 gpm.  25 mpg is 0.04 gpm.  The difference is -0.01 gpm.  So, in order to levy a $500 fee on the 20 mpg car when the pivot point is 25 mpg, we need a rate of $500/.01 gpm.)</t>
+  </si>
+  <si>
+    <t>Output Human Lives Saved from Reduced Particulate Pollution</t>
+  </si>
+  <si>
+    <t>Human Lives Saved from Reduced Particulate Pollution</t>
+  </si>
+  <si>
+    <t>lives</t>
   </si>
 </sst>
 </file>
@@ -3022,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3101,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -11846,7 +11855,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12090,41 +12099,38 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>362</v>
@@ -12132,64 +12138,67 @@
     </row>
     <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>364</v>
+        <v>110</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>365</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>365</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>123</v>
+        <v>368</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>104</v>
@@ -12198,15 +12207,15 @@
         <v>105</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>369</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>104</v>
@@ -12215,15 +12224,15 @@
         <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>104</v>
@@ -12232,15 +12241,15 @@
         <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>373</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>104</v>
@@ -12252,12 +12261,12 @@
         <v>372</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>104</v>
@@ -12269,12 +12278,12 @@
         <v>372</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>104</v>
@@ -12286,12 +12295,12 @@
         <v>372</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>104</v>
@@ -12303,12 +12312,12 @@
         <v>372</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>104</v>
@@ -12316,16 +12325,16 @@
       <c r="C26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>383</v>
+      <c r="D26" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>104</v>
@@ -12334,15 +12343,15 @@
         <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>104</v>
@@ -12351,15 +12360,15 @@
         <v>105</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>104</v>
@@ -12371,12 +12380,12 @@
         <v>115</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>104</v>
@@ -12385,15 +12394,15 @@
         <v>105</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>104</v>
@@ -12405,12 +12414,12 @@
         <v>116</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>104</v>
@@ -12419,15 +12428,15 @@
         <v>105</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>104</v>
@@ -12436,15 +12445,15 @@
         <v>105</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>104</v>
@@ -12456,12 +12465,12 @@
         <v>116</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>560</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>104</v>
@@ -12470,16 +12479,15 @@
         <v>105</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F35" s="6"/>
+        <v>560</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>104</v>
@@ -12491,13 +12499,13 @@
         <v>115</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>104</v>
@@ -12509,9 +12517,27 @@
         <v>115</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13686,11 +13712,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A298:E298"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A294:E294"/>
+    <mergeCell ref="A232:E232"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="D193:D199"/>
     <mergeCell ref="D200:D210"/>
@@ -13703,12 +13730,11 @@
     <mergeCell ref="A140:E140"/>
     <mergeCell ref="A130:E130"/>
     <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A298:E298"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A228:E228"/>
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A294:E294"/>
-    <mergeCell ref="A232:E232"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1275,12 +1275,6 @@
     <t>**Description:** This policy reduces greenhouse gas emissions from the industry sector by switching the fuel used by facilities from coal to natural gas. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** In "Gas to Coal Competition in the U.S. Power Sector" (2013), the International Energy Agency (IEA) estimates the maximum coal-to-gas switching potential of the U.S. power sector was 17% in 2011.  This value might be different for the industry sector and in 2030.</t>
   </si>
   <si>
-    <t>**Description:** This policy reduces methane emissions from the industry sector by increasing the capture of methane that is currently being released into the atmosphere (for example, from leaks in pipes or decomposition of trash in landfills). // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2030 are reduced by 38.5% from the mining industry and 0.7% from the waste management industry.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy reduces methane emissions from the industry sector by increasing the burning of methane that is currently being released into the atmosphere due to industrial processes. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2030 are reduced by 40.4% from the natural gas and petroleum industry, 5.7% from the mining industry, and 17.6% from the waste management industry.</t>
-  </si>
-  <si>
     <t>**Description:** This policy reduces emissions of non-CO2, non-methane greenhouse gases from the inudstry sector by improving production processes and by substituing less-harmful chemicals for gases with high global warming potential. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2030 are reduced by 73% from the chemicals industry and 28.9% from the "other industries" category.</t>
   </si>
   <si>
@@ -1296,9 +1290,6 @@
     <t>**Description:** This policy reduces greenhouse gas emissions from agriculture through measures pertaining to rice cultivation, such as improved flooding practices that avoid anaerobic, methane-forming conditions. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, agricultural process emissions in 2030 are reduced by 0.5%.</t>
   </si>
   <si>
-    <t>**Description:** This policy specifies the fraction of the potential annual amount of carbon capture and sequestration (CCS) that is achieved in 2030, above the amount predicted in the business-as-usual scenario. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, the U.S. will sequester an additional 34.7 million tons of CO2 in 2030 (on top of a BAU Scenario quantity of 369 million tons).</t>
-  </si>
-  <si>
     <t>**Description:** This policy applies a tax on fuels based on their their greenhouse gas emissions.  The carbon tax also increases the base cost of certain equipment according to its embedded carbon content. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2030 range from $17 to $79 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.</t>
   </si>
   <si>
@@ -1407,168 +1398,6 @@
     <t>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from biomass. // **Implementation schedule:** This policy takes effect fully in 2016. // **Guidance for setting values:** Until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between $11/MWh and $23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as $54/MWh.</t>
   </si>
   <si>
-    <t>**Description:** This policy causes the capital cost of heating systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of cooling and ventilation systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of building envelope components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of lighting systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of appliances to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of other energy-using building components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of carbon capture and sequestration equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of coal-fired power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of natural gas power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of nuclear power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of hydroelectric power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of wind power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of solar PV power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of solar thermal power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of biomass power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for the cement industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for the natural gas and petroleum industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for the iron and steel industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for the chemicals industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for the mining industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for the waste management industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for the agriculture industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of equipment for other industries to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of light-duty vehicles to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of heavy-duty vehicles to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of aircraft to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of trains to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of ships to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the capital cost of motorbikes to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of heating systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of cooling and ventilation systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of envelope components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of lighting systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of appliances to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of other energy-using building components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of carbon capture and sequestration equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of coal power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of natural gas power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of nuclear power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of biomass power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by the cement industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by the natural gas and petroleum industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by the iron and steel industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by the chemicals industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by the mining industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by the waste management industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by the agriculture industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of industrial equipment used by other industries to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of LDVs to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of HDVs to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of aircraft to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of trains to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of ships to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
-    <t>**Description:** This policy causes the fuel use of motorbikes to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 17% implies an average of roughly 1% annual improvement, which is very substantial.</t>
-  </si>
-  <si>
     <t>Financial: Change in Total Outlays</t>
   </si>
   <si>
@@ -2266,6 +2095,177 @@
   </si>
   <si>
     <t>**Description:** This policy reduces emissions of greenhouse gases from the inudstry sector by improving worker training and equipment maintenance. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2030 are reduced by 4.5% from the natural gas and petroleum industry and 20.1% from the "other industries" category.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy reduces methane emissions from the industry sector by increasing the capture of methane that is currently being released into the atmosphere (for example, from leaks in pipes or decomposition of trash in landfills). // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2030 are reduced by 40.4% from the natural gas and petroleum industry, 5.7% from the mining industry, and 17.6% from the waste management industry.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy reduces methane emissions from the industry sector by increasing the burning of methane that is currently being released into the atmosphere due to industrial processes. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2030 are reduced by 38.5% from the mining industry and 0.7% from the waste management industry.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of heating systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of cooling and ventilation systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of building envelope components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of lighting systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of appliances to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of other energy-using building components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of carbon capture and sequestration equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of coal-fired power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of natural gas power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of nuclear power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of hydroelectric power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of wind power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of solar PV power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of solar thermal power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of biomass power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for the cement industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for the natural gas and petroleum industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for the iron and steel industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for the chemicals industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for the mining industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for the waste management industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for the agriculture industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of equipment for other industries to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of light-duty vehicles to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of heavy-duty vehicles to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of aircraft to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of trains to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of ships to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the capital cost of motorbikes to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of heating systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of cooling and ventilation systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of envelope components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of lighting systems to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of appliances to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of other energy-using building components to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of carbon capture and sequestration equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of coal power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of natural gas power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of nuclear power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of biomass power plants to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by the cement industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by the natural gas and petroleum industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by the iron and steel industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by the chemicals industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by the mining industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by the waste management industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by the agriculture industry to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of industrial equipment used by other industries to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of LDVs to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of HDVs to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of aircraft to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of trains to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of ships to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the fuel use of motorbikes to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Implementation schedule:** This policy is phased in along a segment of a sigmoidal (S-shaped) curve from 2016-2030, with slower R&amp;D progress in early and late years, and faster R&amp;D progress in middle years. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 15% implies an average of roughly 1% annual improvement, which is very substantial.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy specifies the fraction of the potential annual amount of carbon capture and sequestration (CCS) that is achieved in 2030, above the amount predicted in the business-as-usual scenario. // **Implementation schedule:** This policy is phased in linearly from 2016-2030. // **Guidance for setting values:** If this policy is fully implemented, the U.S. will sequester an additional 190 million tons of CO2 in 2030 (on top of a BAU Scenario quantity of 3 million tons).</t>
   </si>
 </sst>
 </file>
@@ -3428,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="Q1" s="38" t="s">
         <v>224</v>
@@ -3470,13 +3470,13 @@
         <v>164</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="Q2" s="39" t="s">
         <v>227</v>
@@ -3493,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>53</v>
@@ -3524,10 +3524,10 @@
         <v>382</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="Q3" s="39" t="s">
         <v>228</v>
@@ -3581,10 +3581,10 @@
         <v>383</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="Q4" s="39" t="s">
         <v>229</v>
@@ -3638,10 +3638,10 @@
         <v>384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="39" t="s">
         <v>240</v>
@@ -3695,10 +3695,10 @@
         <v>385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="Q6" s="39" t="s">
         <v>240</v>
@@ -3752,10 +3752,10 @@
         <v>386</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="Q7" s="39" t="s">
         <v>240</v>
@@ -3809,10 +3809,10 @@
         <v>387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="39" t="s">
         <v>240</v>
@@ -3826,7 +3826,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="H9" s="9">
         <v>8</v>
@@ -3850,10 +3850,10 @@
         <v>388</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="Q9" s="42" t="s">
         <v>230</v>
@@ -3867,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>696</v>
+        <v>639</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>61</v>
@@ -3904,10 +3904,10 @@
         <v>389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="39" t="s">
         <v>231</v>
@@ -3942,7 +3942,7 @@
         <v>53</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>60</v>
@@ -4005,10 +4005,10 @@
         <v>390</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="39" t="s">
         <v>226</v>
@@ -4041,7 +4041,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>60</v>
@@ -4079,7 +4079,7 @@
         <v>132</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>60</v>
@@ -4117,7 +4117,7 @@
         <v>132</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>60</v>
@@ -4180,10 +4180,10 @@
         <v>391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="39" t="s">
         <v>240</v>
@@ -4216,7 +4216,7 @@
         <v>133</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>60</v>
@@ -4254,7 +4254,7 @@
         <v>134</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>60</v>
@@ -4292,7 +4292,7 @@
         <v>134</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>60</v>
@@ -4384,13 +4384,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="H22" s="9">
         <v>12</v>
@@ -4411,13 +4411,13 @@
         <v>167</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>665</v>
+        <v>608</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="63" t="s">
         <v>240</v>
@@ -4440,10 +4440,10 @@
         <v>Percent New Nonelec Component Sales Shifted to Elec</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="H23" s="9">
         <v>162</v>
@@ -4468,7 +4468,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="O23" s="20" t="str">
         <f t="shared" si="4"/>
@@ -4501,7 +4501,7 @@
         <v>Percent New Nonelec Component Sales Shifted to Elec</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>268</v>
@@ -4529,7 +4529,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>667</v>
+        <v>610</v>
       </c>
       <c r="O24" s="20" t="str">
         <f t="shared" si="4"/>
@@ -4556,16 +4556,16 @@
         <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>174</v>
@@ -4590,13 +4590,13 @@
         <v>43</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>647</v>
+        <v>590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="39" t="s">
         <v>232</v>
@@ -4622,10 +4622,10 @@
         <v>169</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>175</v>
@@ -4653,7 +4653,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>648</v>
+        <v>591</v>
       </c>
       <c r="O26" s="13" t="str">
         <f t="shared" si="7"/>
@@ -4687,10 +4687,10 @@
         <v>170</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>176</v>
@@ -4718,7 +4718,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="O27" s="13" t="str">
         <f t="shared" si="7"/>
@@ -4752,10 +4752,10 @@
         <v>171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>177</v>
@@ -4783,7 +4783,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
       <c r="O28" s="13" t="str">
         <f t="shared" si="7"/>
@@ -4817,10 +4817,10 @@
         <v>172</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>178</v>
@@ -4848,7 +4848,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>651</v>
+        <v>594</v>
       </c>
       <c r="O29" s="13" t="str">
         <f t="shared" si="7"/>
@@ -4882,10 +4882,10 @@
         <v>173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>179</v>
@@ -4913,7 +4913,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
       <c r="O30" s="13" t="str">
         <f t="shared" si="7"/>
@@ -4947,10 +4947,10 @@
         <v>168</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>174</v>
@@ -4978,7 +4978,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>653</v>
+        <v>596</v>
       </c>
       <c r="O31" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5012,10 +5012,10 @@
         <v>169</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>175</v>
@@ -5043,7 +5043,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
       <c r="O32" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5077,10 +5077,10 @@
         <v>170</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>176</v>
@@ -5108,7 +5108,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>655</v>
+        <v>598</v>
       </c>
       <c r="O33" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5142,10 +5142,10 @@
         <v>171</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>177</v>
@@ -5173,7 +5173,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>656</v>
+        <v>599</v>
       </c>
       <c r="O34" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5207,10 +5207,10 @@
         <v>172</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>178</v>
@@ -5238,7 +5238,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="O35" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5272,10 +5272,10 @@
         <v>173</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>179</v>
@@ -5303,7 +5303,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
       <c r="O36" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5337,7 +5337,7 @@
         <v>168</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>268</v>
@@ -5368,7 +5368,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
       <c r="O37" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5402,7 +5402,7 @@
         <v>169</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>268</v>
@@ -5433,7 +5433,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>660</v>
+        <v>603</v>
       </c>
       <c r="O38" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5467,7 +5467,7 @@
         <v>170</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>268</v>
@@ -5498,7 +5498,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>661</v>
+        <v>604</v>
       </c>
       <c r="O39" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5532,7 +5532,7 @@
         <v>171</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>268</v>
@@ -5563,7 +5563,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>662</v>
+        <v>605</v>
       </c>
       <c r="O40" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5597,7 +5597,7 @@
         <v>172</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>268</v>
@@ -5628,7 +5628,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>663</v>
+        <v>606</v>
       </c>
       <c r="O41" s="13" t="str">
         <f t="shared" si="7"/>
@@ -5662,7 +5662,7 @@
         <v>173</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>268</v>
@@ -5693,7 +5693,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>664</v>
+        <v>607</v>
       </c>
       <c r="O42" s="13" t="str">
         <f t="shared" ref="O42:Q42" si="10">O$25</f>
@@ -5743,13 +5743,13 @@
         <v>40</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>530</v>
+        <v>473</v>
       </c>
       <c r="Q43" s="41" t="s">
         <v>117</v>
@@ -5761,10 +5761,10 @@
         <v>113</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5786,19 +5786,19 @@
         <v>1E-3</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>619</v>
+        <v>562</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>708</v>
+        <v>651</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="Q44" s="41" t="s">
-        <v>709</v>
+        <v>652</v>
       </c>
       <c r="R44" s="61"/>
     </row>
@@ -5807,10 +5807,10 @@
         <v>113</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>625</v>
+        <v>568</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -5832,19 +5832,19 @@
         <v>0.01</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>710</v>
+        <v>653</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>624</v>
+        <v>567</v>
       </c>
       <c r="Q45" s="41" t="s">
-        <v>711</v>
+        <v>654</v>
       </c>
       <c r="R45" s="61"/>
     </row>
@@ -5881,13 +5881,13 @@
         <v>40</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="Q46" s="41" t="s">
         <v>117</v>
@@ -5932,13 +5932,13 @@
         <v>48</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="Q47" s="39" t="s">
         <v>240</v>
@@ -5991,13 +5991,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="Q48" s="40" t="str">
         <f>Q47</f>
@@ -6049,13 +6049,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="Q49" s="40" t="str">
         <f>Q48</f>
@@ -6107,13 +6107,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="Q50" s="40" t="str">
         <f>Q49</f>
@@ -6165,13 +6165,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="Q51" s="40" t="str">
         <f>Q50</f>
@@ -6223,13 +6223,13 @@
         <v>% of existing building components</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="Q52" s="40" t="str">
         <f>Q51</f>
@@ -6274,13 +6274,13 @@
         <v>40</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="Q53" s="41" t="s">
         <v>117</v>
@@ -6331,13 +6331,13 @@
         <v>on/off</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="Q54" s="41" t="s">
         <v>117</v>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>60</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>60</v>
@@ -6460,13 +6460,13 @@
         <v>on/off</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="Q57" s="41" t="s">
         <v>117</v>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>60</v>
@@ -6514,10 +6514,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>633</v>
+        <v>576</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
       <c r="H59" s="73">
         <v>148</v>
@@ -6535,19 +6535,19 @@
         <v>0.02</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>637</v>
+        <v>580</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>712</v>
+        <v>655</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>639</v>
+        <v>582</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="Q59" s="41" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
       <c r="R59" s="62"/>
     </row>
@@ -6556,10 +6556,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="H60" s="73">
         <v>149</v>
@@ -6577,19 +6577,19 @@
         <v>0.02</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>713</v>
+        <v>656</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>640</v>
+        <v>583</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="Q60" s="41" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
       <c r="R60" s="62"/>
     </row>
@@ -6598,17 +6598,17 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>702</v>
+        <v>645</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>60</v>
@@ -6647,10 +6647,10 @@
         <v>392</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="Q62" s="39" t="s">
         <v>240</v>
@@ -6688,22 +6688,22 @@
         <v>500</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
       <c r="Q63" s="63" t="s">
         <v>233</v>
       </c>
       <c r="R63" s="64" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -6720,13 +6720,13 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>60</v>
@@ -6778,13 +6778,13 @@
         <v>MW/year</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
       <c r="Q65" s="39" t="s">
         <v>240</v>
@@ -6810,7 +6810,7 @@
         <v>138</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>60</v>
@@ -6840,7 +6840,7 @@
         <v>139</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>60</v>
@@ -6870,7 +6870,7 @@
         <v>140</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>60</v>
@@ -6900,7 +6900,7 @@
         <v>141</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>60</v>
@@ -6930,7 +6930,7 @@
         <v>142</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>60</v>
@@ -6954,10 +6954,10 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>721</v>
+        <v>664</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>60</v>
@@ -6981,10 +6981,10 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>60</v>
@@ -7002,7 +7002,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>735</v>
+        <v>678</v>
       </c>
       <c r="H73" s="9">
         <v>33</v>
@@ -7023,13 +7023,13 @@
         <v>41</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="Q73" s="39" t="s">
         <v>235</v>
@@ -7046,7 +7046,7 @@
         <v>187</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>668</v>
+        <v>611</v>
       </c>
       <c r="H74" s="9">
         <v>34</v>
@@ -7071,10 +7071,10 @@
         <v>393</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
       <c r="Q74" s="39" t="s">
         <v>236</v>
@@ -7098,7 +7098,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>60</v>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>60</v>
@@ -7165,7 +7165,7 @@
         <v>136</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>60</v>
@@ -7215,13 +7215,13 @@
         <v>185</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="Q78" s="41" t="s">
         <v>237</v>
@@ -7250,7 +7250,7 @@
         <v>138</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I79" s="18" t="s">
         <v>60</v>
@@ -7282,7 +7282,7 @@
         <v>139</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>60</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>60</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I82" s="18" t="s">
         <v>60</v>
@@ -7376,7 +7376,7 @@
         <v>142</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I83" s="18" t="s">
         <v>60</v>
@@ -7393,16 +7393,16 @@
         <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="F84" s="7"/>
       <c r="H84" s="73"/>
@@ -7422,16 +7422,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="F85" s="7"/>
       <c r="H85" s="73"/>
@@ -7450,16 +7450,16 @@
         <v>8</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="F86" s="7"/>
       <c r="H86" s="73"/>
@@ -7476,22 +7476,22 @@
         <v>8</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>706</v>
+        <v>649</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="H87" s="73">
         <v>141</v>
@@ -7509,19 +7509,19 @@
         <v>0.01</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="Q87" s="41" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="R87" s="62"/>
     </row>
@@ -7530,16 +7530,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H88" s="73"/>
       <c r="I88" s="18" t="s">
@@ -7566,10 +7566,10 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="H89" s="73"/>
       <c r="I89" s="18" t="s">
@@ -7597,7 +7597,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H90" s="73"/>
       <c r="I90" s="18" t="s">
@@ -7625,7 +7625,7 @@
         <v>121</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H91" s="73"/>
       <c r="I91" s="18" t="s">
@@ -7653,7 +7653,7 @@
         <v>121</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="H92" s="73"/>
       <c r="I92" s="18" t="s">
@@ -7681,7 +7681,7 @@
         <v>122</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H93" s="73"/>
       <c r="I93" s="18" t="s">
@@ -7709,7 +7709,7 @@
         <v>122</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H94" s="73"/>
       <c r="I94" s="18" t="s">
@@ -7737,7 +7737,7 @@
         <v>122</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="H95" s="73"/>
       <c r="I95" s="18" t="s">
@@ -7765,7 +7765,7 @@
         <v>123</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H96" s="73"/>
       <c r="I96" s="18" t="s">
@@ -7793,7 +7793,7 @@
         <v>123</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H97" s="73"/>
       <c r="I97" s="18" t="s">
@@ -7821,10 +7821,10 @@
         <v>123</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>139</v>
@@ -7845,19 +7845,19 @@
         <v>0.01</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="Q98" s="41" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="R98" s="62"/>
     </row>
@@ -7878,7 +7878,7 @@
         <v>124</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H99" s="73"/>
       <c r="I99" s="18" t="s">
@@ -7906,7 +7906,7 @@
         <v>124</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H100" s="73"/>
       <c r="I100" s="18" t="s">
@@ -7934,10 +7934,10 @@
         <v>124</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>140</v>
@@ -7958,19 +7958,19 @@
         <v>0.01</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="Q101" s="41" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="R101" s="62"/>
     </row>
@@ -7991,7 +7991,7 @@
         <v>125</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H102" s="73"/>
       <c r="I102" s="18" t="s">
@@ -8019,7 +8019,7 @@
         <v>125</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H103" s="73"/>
       <c r="I103" s="18" t="s">
@@ -8047,7 +8047,7 @@
         <v>125</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="H104" s="73"/>
       <c r="I104" s="18" t="s">
@@ -8075,7 +8075,7 @@
         <v>126</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H105" s="73"/>
       <c r="I105" s="18" t="s">
@@ -8103,7 +8103,7 @@
         <v>126</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H106" s="73"/>
       <c r="I106" s="18" t="s">
@@ -8131,7 +8131,7 @@
         <v>126</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="H107" s="73"/>
       <c r="I107" s="18" t="s">
@@ -8156,10 +8156,10 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H108" s="73"/>
       <c r="I108" s="18" t="s">
@@ -8184,10 +8184,10 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H109" s="73"/>
       <c r="I109" s="18" t="s">
@@ -8212,10 +8212,10 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>719</v>
+        <v>662</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="H110" s="73"/>
       <c r="I110" s="18" t="s">
@@ -8240,10 +8240,10 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="H111" s="73"/>
       <c r="I111" s="18" t="s">
@@ -8268,10 +8268,10 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="H112" s="73"/>
       <c r="I112" s="18" t="s">
@@ -8296,10 +8296,10 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="H113" s="73"/>
       <c r="I113" s="18" t="s">
@@ -8315,10 +8315,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>669</v>
+        <v>612</v>
       </c>
       <c r="H114" s="73">
         <v>145</v>
@@ -8336,19 +8336,19 @@
         <v>0.01</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>716</v>
+        <v>659</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="Q114" s="41" t="s">
-        <v>715</v>
+        <v>658</v>
       </c>
       <c r="R114" s="62"/>
     </row>
@@ -8360,7 +8360,7 @@
         <v>19</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -8385,13 +8385,13 @@
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>707</v>
+        <v>650</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>548</v>
+        <v>491</v>
       </c>
       <c r="Q115" s="66" t="s">
         <v>238</v>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>60</v>
@@ -8453,7 +8453,7 @@
         <v>136</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>60</v>
@@ -8504,13 +8504,13 @@
         <v>218</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="Q118" s="39" t="s">
         <v>239</v>
@@ -8593,13 +8593,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="Q120" s="40" t="str">
         <f>Q$118</f>
@@ -8650,13 +8650,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="Q121" s="40" t="str">
         <f>Q$118</f>
@@ -8707,13 +8707,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="Q122" s="40" t="str">
         <f>Q$118</f>
@@ -8764,13 +8764,13 @@
         <v>$/MWh</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="Q123" s="40" t="str">
         <f>Q$118</f>
@@ -8785,7 +8785,7 @@
         <v>26</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>670</v>
+        <v>613</v>
       </c>
       <c r="H124" s="9">
         <v>43</v>
@@ -8809,10 +8809,10 @@
         <v>394</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>552</v>
+        <v>495</v>
       </c>
       <c r="Q124" s="39" t="s">
         <v>240</v>
@@ -8826,7 +8826,7 @@
         <v>31</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>671</v>
+        <v>614</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -8854,10 +8854,10 @@
         <v>395</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="Q125" s="39" t="s">
         <v>240</v>
@@ -8900,10 +8900,10 @@
         <v>396</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="Q126" s="39" t="s">
         <v>240</v>
@@ -8918,7 +8918,7 @@
         <v>152</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>672</v>
+        <v>615</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>189</v>
@@ -8951,10 +8951,10 @@
         <v>397</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q127" s="41" t="s">
         <v>300</v>
@@ -9010,10 +9010,10 @@
         <v>398</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q128" s="40" t="str">
         <f t="shared" ref="Q128:Q134" si="26">Q$127</f>
@@ -9068,10 +9068,10 @@
         <v>399</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q129" s="40" t="str">
         <f t="shared" si="26"/>
@@ -9126,10 +9126,10 @@
         <v>400</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q130" s="40" t="str">
         <f t="shared" si="26"/>
@@ -9184,10 +9184,10 @@
         <v>401</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q131" s="40" t="str">
         <f t="shared" si="26"/>
@@ -9242,10 +9242,10 @@
         <v>402</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q132" s="40" t="str">
         <f t="shared" si="26"/>
@@ -9298,10 +9298,10 @@
         <v>403</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q133" s="40" t="str">
         <f t="shared" si="26"/>
@@ -9355,10 +9355,10 @@
         <v>404</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="Q134" s="40" t="str">
         <f t="shared" si="26"/>
@@ -9374,7 +9374,7 @@
         <v>30</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>673</v>
+        <v>616</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -9402,10 +9402,10 @@
         <v>405</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
       <c r="Q135" s="39" t="s">
         <v>240</v>
@@ -9420,7 +9420,7 @@
         <v>32</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>674</v>
+        <v>617</v>
       </c>
       <c r="H136" s="9">
         <v>55</v>
@@ -9444,10 +9444,10 @@
         <v>406</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="Q136" s="39" t="s">
         <v>311</v>
@@ -9464,7 +9464,7 @@
         <v>27</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
       <c r="H137" s="9">
         <v>56</v>
@@ -9485,19 +9485,19 @@
         <v>46</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>407</v>
+        <v>681</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="Q137" s="39" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>24</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>676</v>
+        <v>619</v>
       </c>
       <c r="H138" s="9">
         <v>57</v>
@@ -9526,13 +9526,13 @@
         <v>46</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>408</v>
+        <v>682</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="Q138" s="39" t="s">
         <v>240</v>
@@ -9546,7 +9546,7 @@
         <v>28</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>677</v>
+        <v>620</v>
       </c>
       <c r="H139" s="9">
         <v>58</v>
@@ -9567,13 +9567,13 @@
         <v>46</v>
       </c>
       <c r="N139" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="Q139" s="39" t="s">
         <v>240</v>
@@ -9587,7 +9587,7 @@
         <v>25</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>678</v>
+        <v>621</v>
       </c>
       <c r="H140" s="9">
         <v>59</v>
@@ -9608,13 +9608,13 @@
         <v>46</v>
       </c>
       <c r="N140" s="7" t="s">
-        <v>737</v>
+        <v>680</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="P140" s="4" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="Q140" s="39" t="s">
         <v>240</v>
@@ -9650,13 +9650,13 @@
         <v>46</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="Q141" s="39" t="s">
         <v>240</v>
@@ -9670,10 +9670,10 @@
         <v>205</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
       <c r="I142" s="18" t="s">
         <v>60</v>
@@ -9713,13 +9713,13 @@
         <v>46</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="P143" s="4" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="Q143" s="39" t="s">
         <v>240</v>
@@ -9736,7 +9736,7 @@
         <v>206</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>679</v>
+        <v>622</v>
       </c>
       <c r="H144" s="9">
         <v>62</v>
@@ -9757,13 +9757,13 @@
         <v>46</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="P144" s="4" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="Q144" s="39" t="s">
         <v>240</v>
@@ -9798,13 +9798,13 @@
         <v>46</v>
       </c>
       <c r="N145" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="Q145" s="39" t="s">
         <v>240</v>
@@ -9818,7 +9818,7 @@
         <v>208</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
       <c r="H146" s="9">
         <v>64</v>
@@ -9839,13 +9839,13 @@
         <v>46</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="Q146" s="39" t="s">
         <v>240</v>
@@ -9859,7 +9859,7 @@
         <v>207</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
       <c r="H147" s="9">
         <v>65</v>
@@ -9880,13 +9880,13 @@
         <v>46</v>
       </c>
       <c r="N147" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="Q147" s="39" t="s">
         <v>240</v>
@@ -9921,13 +9921,13 @@
         <v>46</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="Q148" s="39" t="s">
         <v>240</v>
@@ -9966,13 +9966,13 @@
         <v>216</v>
       </c>
       <c r="N149" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="Q149" s="41" t="s">
         <v>234</v>
@@ -9987,7 +9987,7 @@
         <v>76</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>682</v>
+        <v>625</v>
       </c>
       <c r="H150" s="9">
         <v>68</v>
@@ -10008,13 +10008,13 @@
         <v>77</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O150" s="4" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="P150" s="4" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
       <c r="Q150" s="39" t="s">
         <v>240</v>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I151" s="18" t="s">
         <v>60</v>
@@ -10094,13 +10094,13 @@
         <v>219</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q152" s="39" t="s">
         <v>240</v>
@@ -10151,13 +10151,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q153" s="39" t="s">
         <v>240</v>
@@ -10208,13 +10208,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q154" s="39" t="s">
         <v>240</v>
@@ -10265,13 +10265,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q155" s="39" t="s">
         <v>240</v>
@@ -10322,13 +10322,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q156" s="39" t="s">
         <v>240</v>
@@ -10379,13 +10379,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O157" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q157" s="39" t="s">
         <v>240</v>
@@ -10414,7 +10414,7 @@
       </c>
       <c r="G158" s="7"/>
       <c r="H158" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I158" s="18" t="s">
         <v>60</v>
@@ -10472,13 +10472,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q159" s="39" t="s">
         <v>240</v>
@@ -10529,13 +10529,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O160" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q160" s="39" t="s">
         <v>240</v>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="G161" s="7"/>
       <c r="H161" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I161" s="18" t="s">
         <v>60</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="G162" s="7"/>
       <c r="H162" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I162" s="18" t="s">
         <v>60</v>
@@ -10658,13 +10658,13 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O163" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="Q163" s="39" t="s">
         <v>240</v>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="G164" s="7"/>
       <c r="H164" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I164" s="18" t="s">
         <v>60</v>
@@ -10739,7 +10739,7 @@
         <v>33</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>69</v>
@@ -10768,13 +10768,13 @@
         <v>220</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q166" s="41" t="s">
         <v>241</v>
@@ -10824,13 +10824,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q167" s="40" t="str">
         <f>Q$166</f>
@@ -10881,13 +10881,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q168" s="40" t="str">
         <f>Q$166</f>
@@ -10916,7 +10916,7 @@
         <v>137</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I169" s="18" t="s">
         <v>60</v>
@@ -10951,7 +10951,7 @@
         <v>138</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I170" s="18" t="s">
         <v>60</v>
@@ -10986,7 +10986,7 @@
         <v>139</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I171" s="18" t="s">
         <v>60</v>
@@ -11021,7 +11021,7 @@
         <v>144</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I172" s="18" t="s">
         <v>60</v>
@@ -11056,7 +11056,7 @@
         <v>142</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I173" s="18" t="s">
         <v>60</v>
@@ -11113,13 +11113,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q174" s="40" t="str">
         <f>Q$166</f>
@@ -11170,13 +11170,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q175" s="40" t="str">
         <f>Q$166</f>
@@ -11205,7 +11205,7 @@
         <v>147</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I176" s="18" t="s">
         <v>60</v>
@@ -11240,7 +11240,7 @@
         <v>148</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I177" s="18" t="s">
         <v>60</v>
@@ -11298,13 +11298,13 @@
         <v>% of BAU price</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q178" s="40" t="str">
         <f>Q$166</f>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I179" s="18" t="s">
         <v>60</v>
@@ -11352,7 +11352,7 @@
         <v>113</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>168</v>
@@ -11379,13 +11379,13 @@
         <v>44</v>
       </c>
       <c r="N180" s="7" t="s">
-        <v>451</v>
+        <v>683</v>
       </c>
       <c r="O180" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q180" s="39" t="s">
         <v>117</v>
@@ -11433,13 +11433,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>452</v>
+        <v>684</v>
       </c>
       <c r="O181" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q181" s="39" t="s">
         <v>117</v>
@@ -11487,13 +11487,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N182" s="7" t="s">
-        <v>453</v>
+        <v>685</v>
       </c>
       <c r="O182" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q182" s="39" t="s">
         <v>117</v>
@@ -11541,13 +11541,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N183" s="7" t="s">
-        <v>454</v>
+        <v>686</v>
       </c>
       <c r="O183" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q183" s="39" t="s">
         <v>117</v>
@@ -11595,13 +11595,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N184" s="7" t="s">
-        <v>455</v>
+        <v>687</v>
       </c>
       <c r="O184" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q184" s="39" t="s">
         <v>117</v>
@@ -11649,13 +11649,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N185" s="7" t="s">
-        <v>456</v>
+        <v>688</v>
       </c>
       <c r="O185" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q185" s="39" t="s">
         <v>117</v>
@@ -11670,7 +11670,7 @@
         <v>36</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>685</v>
+        <v>628</v>
       </c>
       <c r="H186" s="9">
         <v>91</v>
@@ -11691,13 +11691,13 @@
         <v>44</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="O186" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q186" s="39" t="s">
         <v>117</v>
@@ -11711,7 +11711,7 @@
         <v>143</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>119</v>
@@ -11738,13 +11738,13 @@
         <v>44</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>458</v>
+        <v>690</v>
       </c>
       <c r="O187" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q187" s="39" t="s">
         <v>117</v>
@@ -11793,13 +11793,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>459</v>
+        <v>691</v>
       </c>
       <c r="O188" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P188" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q188" s="39" t="s">
         <v>117</v>
@@ -11848,13 +11848,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N189" s="4" t="s">
-        <v>460</v>
+        <v>692</v>
       </c>
       <c r="O189" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q189" s="39" t="s">
         <v>117</v>
@@ -11903,13 +11903,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>461</v>
+        <v>693</v>
       </c>
       <c r="O190" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q190" s="39" t="s">
         <v>117</v>
@@ -11958,13 +11958,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>462</v>
+        <v>694</v>
       </c>
       <c r="O191" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P191" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q191" s="39" t="s">
         <v>117</v>
@@ -12013,13 +12013,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N192" s="4" t="s">
-        <v>463</v>
+        <v>695</v>
       </c>
       <c r="O192" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q192" s="39" t="s">
         <v>117</v>
@@ -12068,13 +12068,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>464</v>
+        <v>696</v>
       </c>
       <c r="O193" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q193" s="39" t="s">
         <v>117</v>
@@ -12123,13 +12123,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>465</v>
+        <v>697</v>
       </c>
       <c r="O194" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q194" s="39" t="s">
         <v>117</v>
@@ -12143,7 +12143,7 @@
         <v>9</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>687</v>
+        <v>630</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>189</v>
@@ -12170,13 +12170,13 @@
         <v>44</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>466</v>
+        <v>698</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q195" s="39" t="s">
         <v>117</v>
@@ -12224,13 +12224,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>467</v>
+        <v>699</v>
       </c>
       <c r="O196" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q196" s="39" t="s">
         <v>117</v>
@@ -12278,13 +12278,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>468</v>
+        <v>700</v>
       </c>
       <c r="O197" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q197" s="39" t="s">
         <v>117</v>
@@ -12332,13 +12332,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>469</v>
+        <v>701</v>
       </c>
       <c r="O198" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q198" s="39" t="s">
         <v>117</v>
@@ -12386,13 +12386,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>470</v>
+        <v>702</v>
       </c>
       <c r="O199" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q199" s="39" t="s">
         <v>117</v>
@@ -12440,13 +12440,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N200" s="4" t="s">
-        <v>471</v>
+        <v>703</v>
       </c>
       <c r="O200" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q200" s="39" t="s">
         <v>117</v>
@@ -12494,13 +12494,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N201" s="4" t="s">
-        <v>472</v>
+        <v>704</v>
       </c>
       <c r="O201" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q201" s="39" t="s">
         <v>117</v>
@@ -12548,13 +12548,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>473</v>
+        <v>705</v>
       </c>
       <c r="O202" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q202" s="39" t="s">
         <v>117</v>
@@ -12568,7 +12568,7 @@
         <v>114</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>688</v>
+        <v>631</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>53</v>
@@ -12595,13 +12595,13 @@
         <v>44</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>474</v>
+        <v>706</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P203" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q203" s="39" t="s">
         <v>117</v>
@@ -12649,13 +12649,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>475</v>
+        <v>707</v>
       </c>
       <c r="O204" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P204" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q204" s="39" t="s">
         <v>117</v>
@@ -12703,13 +12703,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>476</v>
+        <v>708</v>
       </c>
       <c r="O205" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q205" s="39" t="s">
         <v>117</v>
@@ -12757,13 +12757,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>477</v>
+        <v>709</v>
       </c>
       <c r="O206" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P206" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q206" s="39" t="s">
         <v>117</v>
@@ -12811,13 +12811,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>478</v>
+        <v>710</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q207" s="39" t="s">
         <v>117</v>
@@ -12865,13 +12865,13 @@
         <v>% reduction in cost</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>479</v>
+        <v>711</v>
       </c>
       <c r="O208" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q208" s="39" t="s">
         <v>117</v>
@@ -12885,7 +12885,7 @@
         <v>113</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>689</v>
+        <v>632</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>168</v>
@@ -12912,13 +12912,13 @@
         <v>45</v>
       </c>
       <c r="N209" s="7" t="s">
-        <v>480</v>
+        <v>712</v>
       </c>
       <c r="O209" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P209" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q209" s="39" t="s">
         <v>117</v>
@@ -12966,13 +12966,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N210" s="7" t="s">
-        <v>481</v>
+        <v>713</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q210" s="39" t="s">
         <v>117</v>
@@ -13020,13 +13020,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>482</v>
+        <v>714</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P211" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q211" s="39" t="s">
         <v>117</v>
@@ -13074,13 +13074,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N212" s="7" t="s">
-        <v>483</v>
+        <v>715</v>
       </c>
       <c r="O212" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P212" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q212" s="39" t="s">
         <v>117</v>
@@ -13128,13 +13128,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N213" s="7" t="s">
-        <v>484</v>
+        <v>716</v>
       </c>
       <c r="O213" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P213" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q213" s="39" t="s">
         <v>117</v>
@@ -13182,13 +13182,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N214" s="7" t="s">
-        <v>485</v>
+        <v>717</v>
       </c>
       <c r="O214" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q214" s="39" t="s">
         <v>117</v>
@@ -13202,7 +13202,7 @@
         <v>36</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>690</v>
+        <v>633</v>
       </c>
       <c r="H215" s="9">
         <v>120</v>
@@ -13223,13 +13223,13 @@
         <v>45</v>
       </c>
       <c r="N215" s="7" t="s">
-        <v>486</v>
+        <v>718</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P215" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q215" s="39" t="s">
         <v>117</v>
@@ -13243,7 +13243,7 @@
         <v>143</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>119</v>
@@ -13270,13 +13270,13 @@
         <v>45</v>
       </c>
       <c r="N216" s="7" t="s">
-        <v>487</v>
+        <v>719</v>
       </c>
       <c r="O216" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P216" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q216" s="39" t="s">
         <v>117</v>
@@ -13325,13 +13325,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N217" s="7" t="s">
-        <v>488</v>
+        <v>720</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P217" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q217" s="39" t="s">
         <v>117</v>
@@ -13380,13 +13380,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N218" s="7" t="s">
-        <v>489</v>
+        <v>721</v>
       </c>
       <c r="O218" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P218" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q218" s="39" t="s">
         <v>117</v>
@@ -13413,7 +13413,7 @@
         <v>138</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I219" s="10" t="s">
         <v>60</v>
@@ -13444,7 +13444,7 @@
         <v>139</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I220" s="10" t="s">
         <v>60</v>
@@ -13475,7 +13475,7 @@
         <v>140</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I221" s="10" t="s">
         <v>60</v>
@@ -13506,7 +13506,7 @@
         <v>141</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="I222" s="10" t="s">
         <v>60</v>
@@ -13559,13 +13559,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N223" s="7" t="s">
-        <v>490</v>
+        <v>722</v>
       </c>
       <c r="O223" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P223" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q223" s="39" t="s">
         <v>117</v>
@@ -13579,7 +13579,7 @@
         <v>9</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>692</v>
+        <v>635</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>189</v>
@@ -13606,13 +13606,13 @@
         <v>45</v>
       </c>
       <c r="N224" s="7" t="s">
-        <v>491</v>
+        <v>723</v>
       </c>
       <c r="O224" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P224" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q224" s="39" t="s">
         <v>117</v>
@@ -13660,13 +13660,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N225" s="7" t="s">
-        <v>492</v>
+        <v>724</v>
       </c>
       <c r="O225" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P225" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q225" s="39" t="s">
         <v>117</v>
@@ -13714,13 +13714,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N226" s="7" t="s">
-        <v>493</v>
+        <v>725</v>
       </c>
       <c r="O226" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P226" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q226" s="39" t="s">
         <v>117</v>
@@ -13768,13 +13768,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N227" s="7" t="s">
-        <v>494</v>
+        <v>726</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P227" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q227" s="39" t="s">
         <v>117</v>
@@ -13822,13 +13822,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N228" s="7" t="s">
-        <v>495</v>
+        <v>727</v>
       </c>
       <c r="O228" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P228" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q228" s="39" t="s">
         <v>117</v>
@@ -13876,13 +13876,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N229" s="7" t="s">
-        <v>496</v>
+        <v>728</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P229" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q229" s="39" t="s">
         <v>117</v>
@@ -13930,13 +13930,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N230" s="7" t="s">
-        <v>497</v>
+        <v>729</v>
       </c>
       <c r="O230" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P230" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q230" s="39" t="s">
         <v>117</v>
@@ -13984,13 +13984,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N231" s="7" t="s">
-        <v>498</v>
+        <v>730</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P231" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q231" s="39" t="s">
         <v>117</v>
@@ -14004,7 +14004,7 @@
         <v>114</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>693</v>
+        <v>636</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>53</v>
@@ -14031,13 +14031,13 @@
         <v>45</v>
       </c>
       <c r="N232" s="7" t="s">
-        <v>499</v>
+        <v>731</v>
       </c>
       <c r="O232" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P232" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q232" s="39" t="s">
         <v>117</v>
@@ -14085,13 +14085,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N233" s="7" t="s">
-        <v>500</v>
+        <v>732</v>
       </c>
       <c r="O233" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P233" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q233" s="39" t="s">
         <v>117</v>
@@ -14139,13 +14139,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N234" s="7" t="s">
-        <v>501</v>
+        <v>733</v>
       </c>
       <c r="O234" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P234" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q234" s="39" t="s">
         <v>117</v>
@@ -14193,13 +14193,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N235" s="7" t="s">
-        <v>502</v>
+        <v>734</v>
       </c>
       <c r="O235" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P235" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q235" s="39" t="s">
         <v>117</v>
@@ -14247,13 +14247,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N236" s="7" t="s">
-        <v>503</v>
+        <v>735</v>
       </c>
       <c r="O236" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P236" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q236" s="39" t="s">
         <v>117</v>
@@ -14301,13 +14301,13 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="N237" s="7" t="s">
-        <v>504</v>
+        <v>736</v>
       </c>
       <c r="O237" s="7" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="P237" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="Q237" s="39" t="s">
         <v>117</v>
@@ -14368,7 +14368,7 @@
         <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>705</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14487,12 +14487,12 @@
         <v>319</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>733</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>87</v>
@@ -14504,12 +14504,12 @@
         <v>319</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>734</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>87</v>
@@ -14521,12 +14521,12 @@
         <v>319</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>87</v>
@@ -14538,7 +14538,7 @@
         <v>319</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -14572,18 +14572,18 @@
         <v>319</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>731</v>
+        <v>674</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>732</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>615</v>
+        <v>558</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>87</v>
@@ -14592,10 +14592,10 @@
         <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>616</v>
+        <v>559</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>617</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -14612,13 +14612,13 @@
         <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -14635,13 +14635,13 @@
         <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>630</v>
+        <v>573</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -14658,13 +14658,13 @@
         <v>322</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>631</v>
+        <v>574</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -14681,13 +14681,13 @@
         <v>322</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -14976,7 +14976,7 @@
         <v>99</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -15072,15 +15072,15 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -15088,7 +15088,7 @@
         <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
